--- a/data/trans_camb/P31_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_2_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,71</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 14,2</t>
+          <t>-2,9; 14,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 16,16</t>
+          <t>-4,39; 14,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 11,36</t>
+          <t>-22,2; 1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 10,72</t>
+          <t>4,92; 28,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 10,5</t>
+          <t>-4,64; 15,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,35</t>
+          <t>-3,53; 11,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 11,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 7,72</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,12; 4,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,75; 7,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 10,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 10,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 2,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 14,22</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 8,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-12,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 18,92</t>
+          <t>-3,27; 18,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 21,9</t>
+          <t>-5,17; 19,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 13,79</t>
+          <t>-26,44; 1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 13,05</t>
+          <t>6,46; 46,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,18</t>
+          <t>-5,25; 21,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 13,06</t>
+          <t>-3,83; 13,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 14,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 9,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 5,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; 9,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 13,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 12,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,42; 3,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 19,04</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 10,62</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>1,59</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,67</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,97</t>
+          <t>-11,28; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 4,37</t>
+          <t>-8,24; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 8,32</t>
+          <t>-16,28; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,44</t>
+          <t>-5,12; 13,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,82</t>
+          <t>-11,86; 5,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,07</t>
+          <t>-6,35; 8,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 12,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,07; 4,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 13,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 10,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 3,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 7,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 0,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 11,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 5,21</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-8,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 3,38</t>
+          <t>-12,15; 3,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 4,98</t>
+          <t>-9,01; 5,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 10,28</t>
+          <t>-17,94; 0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 14,05</t>
+          <t>-5,95; 18,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 3,39</t>
+          <t>-13,03; 6,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 7,23</t>
+          <t>-7,17; 10,13</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 16,12</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,78; 5,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 19,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 13,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 3,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 8,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 0,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 14,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 6,19</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 3,08</t>
+          <t>-7,05; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 3,56</t>
+          <t>-8,95; 3,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,32</t>
+          <t>-17,55; -1,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,74</t>
+          <t>-9,14; 9,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 5,01</t>
+          <t>-13,84; -0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,15</t>
+          <t>-0,23; 10,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 13,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 9,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 4,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 3,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 5,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 7,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 2,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 3,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; -0,31</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>-8,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,93%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 3,47</t>
+          <t>-7,54; 3,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 3,9</t>
+          <t>-9,52; 4,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 12,76</t>
+          <t>-18,89; -1,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 17,02</t>
+          <t>-10,51; 12,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,86</t>
+          <t>-14,95; -0,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,28</t>
+          <t>-0,27; 13,24</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 16,37</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 12,04</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 4,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 3,84</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 6,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 8,56</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 3,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 4,28</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; -0,54</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 5,58</t>
+          <t>-3,64; 6,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,12</t>
+          <t>-1,46; 8,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 10,99</t>
+          <t>-14,05; -1,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,87</t>
+          <t>0,53; 13,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,43</t>
+          <t>-7,93; 5,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 8,59</t>
+          <t>0,26; 10,48</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 12,18</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 9,58</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 9,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 9,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 7,0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 8,41</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 1,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 10,16</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 5,37</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>5,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,51</t>
+          <t>-3,94; 7,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 9,29</t>
+          <t>-1,51; 9,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 13,81</t>
+          <t>-15,6; -1,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 14,79</t>
+          <t>0,7; 18,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,7</t>
+          <t>-8,38; 5,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,26</t>
+          <t>0,33; 13,17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 15,2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 11,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 11,21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 11,44</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 8,33</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 10,0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 2,27</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 12,37</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 6,18</t>
         </is>
       </c>
     </row>
@@ -1225,32 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 11,0</t>
+          <t>-0,25; 10,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,51</t>
+          <t>-0,98; 11,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 3,22</t>
+          <t>-4,37; 8,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,21</t>
+          <t>-3,93; 8,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,9</t>
+          <t>-7,91; 4,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,69</t>
+          <t>-9,85; 2,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 4,85</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 2,05</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 13,98</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 4,87</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 5,02</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,52</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 3,88</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 9,34</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 3,26</t>
         </is>
       </c>
     </row>
@@ -1301,32 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>-3,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 13,35</t>
+          <t>-0,26; 12,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,65</t>
+          <t>-0,83; 14,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 3,66</t>
+          <t>-4,84; 10,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 5,96</t>
+          <t>-4,2; 10,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,71</t>
+          <t>-8,26; 4,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,81</t>
+          <t>-10,38; 2,93</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 5,5</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 2,21</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 16,9</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 5,29</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 7,51</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 4,38</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 11,09</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 3,57</t>
         </is>
       </c>
     </row>
@@ -1381,32 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -1419,32 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 5,49</t>
+          <t>-6,41; 8,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 7,32</t>
+          <t>-6,49; 9,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,32</t>
+          <t>-12,14; 3,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,17</t>
+          <t>-3,75; 14,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 4,93</t>
+          <t>-11,47; 4,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,18</t>
+          <t>-3,24; 7,9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 5,32</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 2,51</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 13,68</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 7,65</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 5,86</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 5,07</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 0,72</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 11,33</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 4,39</t>
         </is>
       </c>
     </row>
@@ -1457,32 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-0,75%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-4,75%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-4,81%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 6,65</t>
+          <t>-7,24; 9,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 8,77</t>
+          <t>-7,34; 12,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 8,4</t>
+          <t>-13,77; 4,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,03</t>
+          <t>-4,3; 19,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,77</t>
+          <t>-12,39; 5,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 4,89</t>
+          <t>-3,56; 9,23</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 6,14</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 2,87</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 16,95</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 8,86</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 6,86</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 5,95</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 0,85</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 14,07</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 5,0</t>
         </is>
       </c>
     </row>
@@ -1537,32 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,02</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1575,32 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,83</t>
+          <t>-2,12; 3,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,33</t>
+          <t>-0,89; 4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,98</t>
+          <t>-9,18; -2,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,6</t>
+          <t>1,71; 8,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,22</t>
+          <t>-5,5; 1,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,84</t>
+          <t>0,28; 5,07</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,46</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 2,33</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 5,87</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,36</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,27</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 4,78</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; -0,81</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,26</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 0,85</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
           <t>0,25%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +2945,84 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,22</t>
+          <t>-2,37; 3,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,97</t>
+          <t>-1,01; 5,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,82</t>
+          <t>-10,42; -2,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,79</t>
+          <t>2,01; 10,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,75</t>
+          <t>-6,04; 1,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,64</t>
+          <t>0,32; 5,96</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 7,62</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 2,72</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 6,96</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 3,85</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 3,79</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,53</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; -0,96</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 7,55</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 0,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1684,15 +3030,15 @@
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
